--- a/Desarrollo/SDD/Elicitacion de Requisitos.xlsx
+++ b/Desarrollo/SDD/Elicitacion de Requisitos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neptali Antony Reyes\Desktop\GCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6870" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="ITERACION1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="96">
+  <si>
+    <t>LISTA DE REQUISITOS DEL SISTEMA XYZ</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -47,9 +50,24 @@
     <t>RQ01</t>
   </si>
   <si>
+    <t>VENTAS</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Registrar Cliente</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir registra los datos del cliente, tales como: Apellidos paterno, materno, tipo de documento de identidad, numero de documento de identidad, ….</t>
+  </si>
+  <si>
     <t>RQ02</t>
   </si>
   <si>
+    <t>CU01- Mantenimiento de clientes</t>
+  </si>
+  <si>
     <t>RQ03</t>
   </si>
   <si>
@@ -104,6 +122,12 @@
     <t>RQ20</t>
   </si>
   <si>
+    <t>Modificar datos del cliente</t>
+  </si>
+  <si>
+    <t>Actualizar datos de clientes</t>
+  </si>
+  <si>
     <t>Nombre de Caso de Uso</t>
   </si>
   <si>
@@ -113,7 +137,129 @@
     <t xml:space="preserve">Prototipo </t>
   </si>
   <si>
-    <t xml:space="preserve">Prototipo 001: Mantenimiento de Clientes </t>
+    <t>PROTOTIPO-001</t>
+  </si>
+  <si>
+    <t>Prototipo 001: Login</t>
+  </si>
+  <si>
+    <t>Prototipo 002: Editar información personal</t>
+  </si>
+  <si>
+    <t>Prototipo 003: Registrar disponibilidad.</t>
+  </si>
+  <si>
+    <t>Prototipo 004: Seleccionar cursos</t>
+  </si>
+  <si>
+    <t>Prototipo 005: Generar reporte</t>
+  </si>
+  <si>
+    <t>Seleccionar escuela académica profesional</t>
+  </si>
+  <si>
+    <t>Búsqueda de cursos.</t>
+  </si>
+  <si>
+    <t>Agregar curso a la lista</t>
+  </si>
+  <si>
+    <t>Quitar curso de la lista</t>
+  </si>
+  <si>
+    <t>Validar número de veces de registro.</t>
+  </si>
+  <si>
+    <t>Visualizar registro de disponibilidad horaria</t>
+  </si>
+  <si>
+    <t>Imprimir registro de disponibilidad horaria.</t>
+  </si>
+  <si>
+    <t>Descargar en formato pdf de registro de disponibilidad horaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviar el horario al correo del docente </t>
+  </si>
+  <si>
+    <t>Modificar contraseña</t>
+  </si>
+  <si>
+    <t>Salir de la aplicación web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerrar sesión </t>
+  </si>
+  <si>
+    <t>RQ21</t>
+  </si>
+  <si>
+    <t>RQ22</t>
+  </si>
+  <si>
+    <t>RQ23</t>
+  </si>
+  <si>
+    <t>RQ24</t>
+  </si>
+  <si>
+    <t>Profesor</t>
+  </si>
+  <si>
+    <t>Generar reporte</t>
+  </si>
+  <si>
+    <t>Editar información personal</t>
+  </si>
+  <si>
+    <t>Seleccionar cursos</t>
+  </si>
+  <si>
+    <t>Una vez que el curso ha sido seleccionado, el sistema permite agregarlo a un lista por medio del botón agregar</t>
+  </si>
+  <si>
+    <t>De la lista de cursos agregados el profesor puede seleccionar un curso y pulsando el botón quitar el curso es retirado de la lista</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir seleccionar la EAP a la que pertenece el profesor sea esta Ingeniera de sistemas o ingeniería de software</t>
+  </si>
+  <si>
+    <t>El sistema permite visualizar los cursos al escribir el nombre del curso por medio de una lista seleccionable</t>
+  </si>
+  <si>
+    <t>Al pulsar el botón seleccionar horario el sistema verifica si ya se hecho con anterioridad dicha selección y si la respuesta es positiva entonces no permitirá la edición del horario.</t>
+  </si>
+  <si>
+    <t> Una vez realizada la selección horaria el sistema permite visualizar dicho horario mostrando por semana mostrado una matriz donde las horas seleccionadas están marcadas, mostrando también el numero horas, nombre, categoría del docente</t>
+  </si>
+  <si>
+    <t> En el botón imprimir envía el horario a la impresora con todos sus atributos.</t>
+  </si>
+  <si>
+    <t> El sistema permite que al pulsar el botón descargar se genera en formato pdf un file que contiene todos los datos del horario.</t>
+  </si>
+  <si>
+    <t>El sistema permite que al pulsar el botón “enviar a mail” se envía un correo electrónico, de la base de datos del profesor, con todos sus atributos.</t>
+  </si>
+  <si>
+    <t> Una vez que el docente ha seleccionado su información en el botón  “cambiar contraseña” donde aparece una nueva vista con dos campos para escribir la nueva contraseña y verificar contraseña,  y al pulsar el botón aceptar siempre  y cuando las contraseñas sean iguales cambiará la contraseña de acceso.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>El sistema permitirá al docente salir de la aplicación web (cerrar su sesión) cuando lo desee.</t>
+    </r>
+  </si>
+  <si>
+    <t> Una vez mostrado el horario el docente puede seleccionar el botón “Salir” el cual permite el cierre de todos los accesos para el usuario,</t>
   </si>
   <si>
     <t>Ingresar código</t>
@@ -122,36 +268,54 @@
     <t>Ingresar contraseña.</t>
   </si>
   <si>
+    <t>Verificar si el docente está registrado en la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar datos del docente </t>
+  </si>
+  <si>
+    <t>Editar datos del docente</t>
+  </si>
+  <si>
+    <t>Registrar datos del docente</t>
+  </si>
+  <si>
+    <t>Seleccionar la modalidad del docente ya sea tiempo completo o parcial</t>
+  </si>
+  <si>
+    <t>Seleccionar disponibilidad horaria de acuerdo a su modalidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcar las casillas de disponibilidad horaria </t>
+  </si>
+  <si>
+    <t>Limpiar todos los registros de checks marcados de la disponibilidad horaria</t>
+  </si>
+  <si>
+    <t>Validar horas marcadas de acuerdo a la modalidad del docente</t>
+  </si>
+  <si>
+    <t>Indicar mediante un mensaje al docente si las horas marcadas no corresponden con su modalidad</t>
+  </si>
+  <si>
     <t>Verificar si el docente está registrado</t>
   </si>
   <si>
     <t>Ingresar datos del docente</t>
   </si>
   <si>
-    <t>Editar datos del docente</t>
-  </si>
-  <si>
-    <t>Registrar datos del docente</t>
+    <t>Seleccionar la modalidad del docente</t>
   </si>
   <si>
     <t>Seleccionar disponibilidad horaria</t>
   </si>
   <si>
-    <t>Limpiar todos los registros de checks marcados de la disponibilidad horaria</t>
-  </si>
-  <si>
-    <t>Seleccionar la modalidad del docente</t>
-  </si>
-  <si>
-    <t>Validar horas marcadas de acuerdo a la modalidad del docente</t>
+    <t>Editar disponibilidad horaria</t>
   </si>
   <si>
     <t>Indicar al docente si las horas marcadas corresponden con su modalidad</t>
   </si>
   <si>
-    <t>Profesor</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -159,37 +323,13 @@
   </si>
   <si>
     <t>Registro disponibilidad</t>
-  </si>
-  <si>
-    <t>Verificar si el docente está registrado en la base de datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingresar datos del docente </t>
-  </si>
-  <si>
-    <t>Seleccionar la modalidad del docente ya sea tiempo completo o parcial</t>
-  </si>
-  <si>
-    <t>Seleccionar disponibilidad horaria de acuerdo a su modalidad</t>
-  </si>
-  <si>
-    <t>Editar disponibilidad horaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcar las casillas de disponibilidad horaria </t>
-  </si>
-  <si>
-    <t>Indicar mediante un mensaje al docente si las horas marcadas no corresponden con su modalidad</t>
-  </si>
-  <si>
-    <t>LISTA DE REQUISITOS DEL SISTEMA CLP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -236,6 +376,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -244,25 +390,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -280,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -408,6 +535,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -442,36 +582,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -480,7 +620,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -489,13 +629,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,86 +659,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -680,54 +827,194 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3" descr="https://lh5.googleusercontent.com/IvB9OqbY9IEnSCO2htO0pDsxBU1tlzHOUEN-6XvcBIfb7r2ZGosYJ_6wV4ki5aWt1csSS3tHWI1k2kVkVFam18-rAbvFa7eKKahro4Gwwgbs6JRFZpZ3W9b7WurGNflK5bGi8VKPUUboQx60"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="4" name="image07.png"/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="1019175"/>
+          <a:off x="561975" y="809625"/>
+          <a:ext cx="4924425" cy="3190240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="image15.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="4467225"/>
+          <a:ext cx="4600575" cy="4657725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="image13.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="9639300"/>
           <a:ext cx="5095875" cy="5172075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="F3F3F3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="image16.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="15306675"/>
+          <a:ext cx="4695825" cy="5657850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4229100</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="image19.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="21459825"/>
+          <a:ext cx="4229100" cy="5276215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1022,328 +1309,493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" customWidth="1"/>
     <col min="6" max="6" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="C19" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="14" t="s">
+      <c r="C22" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="C23" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="33" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="F23" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="24"/>
+      <c r="F24" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
+  <autoFilter ref="B3:F3"/>
+  <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D7:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1351,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1363,21 +1815,21 @@
     <col min="5" max="5" width="29.28515625" customWidth="1"/>
     <col min="6" max="6" width="44.28515625" customWidth="1"/>
     <col min="7" max="7" width="36.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -1387,295 +1839,332 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="16"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>28</v>
+      <c r="G3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="30">
+        <v>2</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="37"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="11"/>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="11"/>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="11"/>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="11"/>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="11"/>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="11"/>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="11"/>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="11"/>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="11"/>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1711,7 +2200,7 @@
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1731,6 +2220,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1843,6 +2333,26 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Desarrollo/SDD/Elicitacion de Requisitos.xlsx
+++ b/Desarrollo/SDD/Elicitacion de Requisitos.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neptali Antony Reyes\Desktop\GCS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6060"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
   <si>
     <t>LISTA DE REQUISITOS DEL SISTEMA XYZ</t>
   </si>
@@ -182,9 +177,6 @@
     <t xml:space="preserve">Enviar el horario al correo del docente </t>
   </si>
   <si>
-    <t>Modificar contraseña</t>
-  </si>
-  <si>
     <t>Salir de la aplicación web</t>
   </si>
   <si>
@@ -197,21 +189,12 @@
     <t>RQ22</t>
   </si>
   <si>
-    <t>RQ23</t>
-  </si>
-  <si>
-    <t>RQ24</t>
-  </si>
-  <si>
     <t>Profesor</t>
   </si>
   <si>
     <t>Generar reporte</t>
   </si>
   <si>
-    <t>Editar información personal</t>
-  </si>
-  <si>
     <t>Seleccionar cursos</t>
   </si>
   <si>
@@ -240,9 +223,6 @@
   </si>
   <si>
     <t>El sistema permite que al pulsar el botón “enviar a mail” se envía un correo electrónico, de la base de datos del profesor, con todos sus atributos.</t>
-  </si>
-  <si>
-    <t> Una vez que el docente ha seleccionado su información en el botón  “cambiar contraseña” donde aparece una nueva vista con dos campos para escribir la nueva contraseña y verificar contraseña,  y al pulsar el botón aceptar siempre  y cuando las contraseñas sean iguales cambiará la contraseña de acceso.</t>
   </si>
   <si>
     <r>
@@ -271,15 +251,6 @@
     <t>Verificar si el docente está registrado en la base de datos</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingresar datos del docente </t>
-  </si>
-  <si>
-    <t>Editar datos del docente</t>
-  </si>
-  <si>
-    <t>Registrar datos del docente</t>
-  </si>
-  <si>
     <t>Seleccionar la modalidad del docente ya sea tiempo completo o parcial</t>
   </si>
   <si>
@@ -301,9 +272,6 @@
     <t>Verificar si el docente está registrado</t>
   </si>
   <si>
-    <t>Ingresar datos del docente</t>
-  </si>
-  <si>
     <t>Seleccionar la modalidad del docente</t>
   </si>
   <si>
@@ -316,19 +284,31 @@
     <t>Indicar al docente si las horas marcadas corresponden con su modalidad</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Registro docente</t>
-  </si>
-  <si>
-    <t>Registro disponibilidad</t>
+    <t>Iniciar sesion</t>
+  </si>
+  <si>
+    <t>Editar perfil</t>
+  </si>
+  <si>
+    <t>Registrar disponibilidad</t>
+  </si>
+  <si>
+    <t>Modificar número telefónico</t>
+  </si>
+  <si>
+    <t>Modificar correo</t>
+  </si>
+  <si>
+    <t> Una vez que el docente ha seleccionado la opción  “Editar perfil” donde aparece una nueva vista con un formulario de sus datos, puede modificar su correo si es que asi lo desee.</t>
+  </si>
+  <si>
+    <t> Una vez que el docente ha seleccionado la opción  “Editar perfil” donde aparece una nueva vista con un formulario de sus datos, puede modificar su número de teléfono si es que asi lo desee.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -620,7 +600,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -661,6 +641,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -700,38 +713,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1065,7 +1048,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1100,7 +1083,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1309,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1322,18 +1305,18 @@
     <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="62.140625" customWidth="1"/>
-    <col min="6" max="6" width="50.85546875" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -1367,16 +1350,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1385,16 +1368,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>76</v>
+        <v>56</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,52 +1386,52 @@
         <v>14</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,16 +1440,16 @@
         <v>17</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="41" t="s">
-        <v>80</v>
+      <c r="F9" s="29" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,16 +1458,16 @@
         <v>18</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>81</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1493,16 +1476,16 @@
         <v>19</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>82</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1511,16 +1494,16 @@
         <v>20</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1529,264 +1512,229 @@
         <v>21</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>95</v>
+      <c r="C15" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>62</v>
+      <c r="C17" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="D17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>62</v>
+      <c r="C18" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>62</v>
+      <c r="C19" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>60</v>
+      <c r="C20" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>60</v>
+      <c r="C21" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="33" t="s">
-        <v>60</v>
+      <c r="C22" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="33" t="s">
-        <v>60</v>
+      <c r="C23" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="34" t="s">
+      <c r="E25" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>74</v>
+      <c r="F25" s="27" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1821,14 +1769,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1873,10 +1821,10 @@
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="36" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1885,13 +1833,13 @@
       <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="41">
         <v>2</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1900,30 +1848,30 @@
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="23"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="24"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -2334,7 +2282,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="22" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2344,12 +2292,12 @@
       </c>
     </row>
     <row r="90" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="35" t="s">
+      <c r="B128" s="22" t="s">
         <v>42</v>
       </c>
     </row>
